--- a/estimacion.xlsx
+++ b/estimacion.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Factor de Ajuste" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Etapa / Actividades</t>
   </si>
@@ -497,6 +498,21 @@
   </si>
   <si>
     <t>Carta de finalizacion</t>
+  </si>
+  <si>
+    <t>Validacion del ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>reporte de errores si los hay</t>
+  </si>
+  <si>
+    <t>validar herramientas a utilizar para las pruebas</t>
+  </si>
+  <si>
+    <t>reuniones de seguimiento Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por ser un cliente nuevo sin datos </t>
   </si>
 </sst>
 </file>
@@ -810,7 +826,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -917,6 +933,9 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,9 +945,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -943,6 +959,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,7 +1003,7 @@
         <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11EFA6-F96F-4D3C-A0D7-86F7F846B3A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F11EFA6-F96F-4D3C-A0D7-86F7F846B3A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1328,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1366,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1355,23 +1375,23 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1430,10 +1450,10 @@
         <f>SUM(D9:D14)</f>
         <v>54</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1445,8 +1465,8 @@
       <c r="E9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1458,8 +1478,8 @@
       <c r="E10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1471,8 +1491,8 @@
       <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1484,22 +1504,22 @@
       <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1513,8 +1533,8 @@
         <f>SUM(D16:D21)</f>
         <v>10</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1526,8 +1546,8 @@
       <c r="E16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1539,34 +1559,34 @@
       <c r="E17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -1580,8 +1600,8 @@
         <f>SUM(D23:D28)</f>
         <v>22</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1707,49 +1727,65 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15">
         <f>SUM(D35:D39)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="11">
+        <v>3</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="11">
+        <v>3</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>3</v>
+      </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -1764,7 +1800,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13">
         <f>SUM(F3:F34)</f>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="7"/>
@@ -1778,11 +1814,11 @@
       </c>
       <c r="D42" s="16">
         <f>D40*F42</f>
-        <v>17.55</v>
+        <v>42.349999999999994</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="21">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>17</v>
@@ -1795,7 +1831,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="17">
         <f>SUM(D40:D42)</f>
-        <v>134.55000000000001</v>
+        <v>163.35</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="19"/>
@@ -1807,46 +1843,48 @@
       <c r="A46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="39"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="39"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="39"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="23">
         <f>F47*F46</f>
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="39"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="22">
         <f>D40/F47</f>
-        <v>13</v>
+        <v>13.444444444444445</v>
       </c>
       <c r="G49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G8:H22"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D49:E49"/>
@@ -1854,8 +1892,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G8:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1866,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:J21"/>
+  <dimension ref="A5:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2015,29 +2051,37 @@
       <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="45">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="34">
-        <f>SUM(B6:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B20" s="34">
+        <f>SUM(B6:B19)</f>
+        <v>0.35</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="28" t="s">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D21" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E7:J8"/>
@@ -2052,12 +2096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E3835CE8B013E4BBEEF4EA1DD14B8A4" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9a59810a5a98b97d656961edd6aef59b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="13aeacfd-ba74-4d77-9ffd-987c5de54b15" xmlns:ns4="9c43880c-206c-4445-b19e-10b9f661acc5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97bcc0badeb465fd31660b90c432e1d2" ns3:_="" ns4:_="">
     <xsd:import namespace="13aeacfd-ba74-4d77-9ffd-987c5de54b15"/>
@@ -2280,6 +2318,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2290,15 +2334,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765F6BC6-C01A-4595-B02D-B45452924989}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB5BEEF8-D7EA-446C-B41C-6FC307DDD518}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2317,6 +2352,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765F6BC6-C01A-4595-B02D-B45452924989}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B2EF72-39C3-4073-894E-CCE8D38674CF}">
   <ds:schemaRefs>
